--- a/data/trans_bre/P19-Provincia-trans_bre.xlsx
+++ b/data/trans_bre/P19-Provincia-trans_bre.xlsx
@@ -637,7 +637,7 @@
         <v>4.321208924537872</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>2.858640662108153</v>
+        <v>2.858640662108142</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.1456694099849173</v>
@@ -649,7 +649,7 @@
         <v>0.1422909395347989</v>
       </c>
       <c r="J4" s="6" t="n">
-        <v>0.08200912457895658</v>
+        <v>0.08200912457895625</v>
       </c>
     </row>
     <row r="5">
@@ -660,28 +660,28 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>-4.011876302659459</v>
+        <v>-4.12807601693549</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>-6.275389043243748</v>
+        <v>-6.886818865242642</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>-3.264293963668872</v>
+        <v>-4.245663935430958</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>-4.22243951085938</v>
+        <v>-4.204302178322751</v>
       </c>
       <c r="G5" s="6" t="n">
-        <v>-0.1844459338939253</v>
+        <v>-0.1841708205746423</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>-0.2138845139200765</v>
+        <v>-0.2484140448549153</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>-0.09289102543889452</v>
+        <v>-0.1240021804912419</v>
       </c>
       <c r="J5" s="6" t="n">
-        <v>-0.1066691002769602</v>
+        <v>-0.1027867902427195</v>
       </c>
     </row>
     <row r="6">
@@ -692,28 +692,28 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>10.13415753582294</v>
+        <v>10.3503017008565</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>9.087673225386059</v>
+        <v>8.435888118532873</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>12.81338285551638</v>
+        <v>12.45906147087777</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>10.03181408445459</v>
+        <v>10.18294632031344</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>0.6095893209131743</v>
+        <v>0.6282667044435523</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.4042762988724145</v>
+        <v>0.3744577168426134</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.5003622065002921</v>
+        <v>0.4678391652680696</v>
       </c>
       <c r="J6" s="6" t="n">
-        <v>0.3304948920614998</v>
+        <v>0.3365759402712161</v>
       </c>
     </row>
     <row r="7">
@@ -737,7 +737,7 @@
         <v>4.028279186861472</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>3.098982833727104</v>
+        <v>3.098982833727101</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.2170984369053455</v>
@@ -749,7 +749,7 @@
         <v>0.1422770874258897</v>
       </c>
       <c r="J7" s="6" t="n">
-        <v>0.1307487153071492</v>
+        <v>0.1307487153071491</v>
       </c>
     </row>
     <row r="8">
@@ -760,28 +760,28 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.1672107195280029</v>
+        <v>-0.06186849203346743</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>-4.74036339946472</v>
+        <v>-5.001957800746612</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>-1.934938924377562</v>
+        <v>-2.114448847772691</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>-2.802328841930791</v>
+        <v>-2.833259703034902</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>0.007231689208870564</v>
+        <v>-0.00298882808061905</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>-0.1719814667159831</v>
+        <v>-0.1829307946513434</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>-0.06332764076269334</v>
+        <v>-0.06524885314942207</v>
       </c>
       <c r="J8" s="6" t="n">
-        <v>-0.1100609494558877</v>
+        <v>-0.1063907403208555</v>
       </c>
     </row>
     <row r="9">
@@ -792,28 +792,28 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>11.66249911690614</v>
+        <v>12.14649899653031</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>6.475440746393151</v>
+        <v>6.107488518129274</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>9.714688136897468</v>
+        <v>9.561389550222513</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>8.670334255268482</v>
+        <v>8.561793586027223</v>
       </c>
       <c r="G9" s="6" t="n">
-        <v>0.4529198427699896</v>
+        <v>0.464682550840081</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.2992736993496906</v>
+        <v>0.2810185847627439</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.3763515290247786</v>
+        <v>0.3827603033254176</v>
       </c>
       <c r="J9" s="6" t="n">
-        <v>0.4387449482413953</v>
+        <v>0.4280530992593252</v>
       </c>
     </row>
     <row r="10">
@@ -860,28 +860,28 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>-1.140047873442528</v>
+        <v>-0.767009199479465</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>4.952062089613072</v>
+        <v>5.43932279382381</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>-6.054200450753202</v>
+        <v>-5.725072014798688</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>3.884936003329632</v>
+        <v>3.024743754675861</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>-0.03603470038279348</v>
+        <v>-0.03252337453558207</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.1781561366295779</v>
+        <v>0.2033265976032105</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>-0.1806110017029885</v>
+        <v>-0.1723144005672383</v>
       </c>
       <c r="J11" s="6" t="n">
-        <v>0.1550199966192509</v>
+        <v>0.1205258633336088</v>
       </c>
     </row>
     <row r="12">
@@ -892,28 +892,28 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>12.11379531349065</v>
+        <v>12.52726877917672</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>19.76611432097722</v>
+        <v>19.84150036816381</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>8.523230719509852</v>
+        <v>8.399339838973342</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>16.47570978564307</v>
+        <v>15.34725508851662</v>
       </c>
       <c r="G12" s="6" t="n">
-        <v>0.6733469541305953</v>
+        <v>0.657842411211412</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>1.002248848937817</v>
+        <v>1.007728787874502</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.333638223938512</v>
+        <v>0.3238879848197714</v>
       </c>
       <c r="J12" s="6" t="n">
-        <v>0.9330484473263003</v>
+        <v>0.8828533982596204</v>
       </c>
     </row>
     <row r="13">
@@ -960,28 +960,28 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.0016324897094301</v>
+        <v>-0.06461410902922526</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>-7.222956197167835</v>
+        <v>-6.787912888716686</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>-0.5197820654535812</v>
+        <v>-0.03219631657617438</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>-1.515113564586863</v>
+        <v>-1.528030637117359</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>0.0008525547664938755</v>
+        <v>-8.358716406973191e-05</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>-0.2368103706426786</v>
+        <v>-0.2245649728195225</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>-0.0140440056172282</v>
+        <v>-0.004490326914851005</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>-0.03858529010043885</v>
+        <v>-0.03450460261444515</v>
       </c>
     </row>
     <row r="15">
@@ -992,28 +992,28 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>12.93754354845754</v>
+        <v>13.00635945142114</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>5.504165694981774</v>
+        <v>5.841920541414153</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>14.00459182531176</v>
+        <v>13.91626393615047</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>13.69273527922063</v>
+        <v>14.43111164830817</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>0.5648705719855983</v>
+        <v>0.5662426794356529</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>0.2358180455246132</v>
+        <v>0.2500529279164164</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.5098437115522947</v>
+        <v>0.5104628057445103</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>0.432292003938409</v>
+        <v>0.460875284798519</v>
       </c>
     </row>
     <row r="16">
@@ -1037,7 +1037,7 @@
         <v>9.431179028717027</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>5.788507787582069</v>
+        <v>5.788507787582066</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>-0.1374469748203689</v>
@@ -1049,7 +1049,7 @@
         <v>0.575717481723191</v>
       </c>
       <c r="J16" s="6" t="n">
-        <v>0.4993908538737527</v>
+        <v>0.4993908538737524</v>
       </c>
     </row>
     <row r="17">
@@ -1060,28 +1060,28 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>-13.4816344697173</v>
+        <v>-13.45286329466908</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>5.147331931995471</v>
+        <v>5.293795765681673</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>1.916103773771564</v>
+        <v>1.963769664750751</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>0.8658773598952778</v>
+        <v>0.4670948962292132</v>
       </c>
       <c r="G17" s="6" t="n">
-        <v>-0.3585518496171426</v>
+        <v>-0.3534539557193206</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.204225588814355</v>
+        <v>0.1991971190144851</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.07088345217523538</v>
+        <v>0.09896735780745025</v>
       </c>
       <c r="J17" s="6" t="n">
-        <v>0.05065018219469896</v>
+        <v>0.02677635651974312</v>
       </c>
     </row>
     <row r="18">
@@ -1092,28 +1092,28 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>4.761940771097372</v>
+        <v>4.935247482423105</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>22.38900531862432</v>
+        <v>22.30763370359534</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>17.47987301290687</v>
+        <v>17.54684246592926</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>11.05110461683359</v>
+        <v>10.81940479414815</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>0.1746342190929713</v>
+        <v>0.1768559643843393</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>1.48379742729064</v>
+        <v>1.415909445583825</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>1.374222659326663</v>
+        <v>1.467426385155167</v>
       </c>
       <c r="J18" s="6" t="n">
-        <v>1.284470328073492</v>
+        <v>1.245285947504395</v>
       </c>
     </row>
     <row r="19">
@@ -1137,7 +1137,7 @@
         <v>5.611772289856754</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>5.130234790164448</v>
+        <v>5.130234790164434</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.7530920826561179</v>
@@ -1149,7 +1149,7 @@
         <v>0.1572431670615207</v>
       </c>
       <c r="J19" s="6" t="n">
-        <v>0.221538762208493</v>
+        <v>0.2215387622084924</v>
       </c>
     </row>
     <row r="20">
@@ -1160,28 +1160,28 @@
         </is>
       </c>
       <c r="C20" s="5" t="n">
-        <v>7.9287439078283</v>
+        <v>7.397489892405354</v>
       </c>
       <c r="D20" s="5" t="n">
-        <v>-8.183742180434548</v>
+        <v>-8.170481429023418</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>-2.811382710933321</v>
+        <v>-3.059316934557257</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>-1.70687025549435</v>
+        <v>-1.445658939655104</v>
       </c>
       <c r="G20" s="6" t="n">
-        <v>0.3369098644104968</v>
+        <v>0.3175332749235392</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>-0.2404006604531997</v>
+        <v>-0.2371349100566511</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>-0.07115988093852674</v>
+        <v>-0.0788396827560565</v>
       </c>
       <c r="J20" s="6" t="n">
-        <v>-0.07069939763158517</v>
+        <v>-0.05317442312928989</v>
       </c>
     </row>
     <row r="21">
@@ -1192,28 +1192,28 @@
         </is>
       </c>
       <c r="C21" s="5" t="n">
-        <v>22.65425151485631</v>
+        <v>21.94584985950038</v>
       </c>
       <c r="D21" s="5" t="n">
-        <v>7.631584543556144</v>
+        <v>8.17266624464161</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>14.09132204918649</v>
+        <v>14.47253806741898</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>11.29328240675938</v>
+        <v>11.24134424116715</v>
       </c>
       <c r="G21" s="6" t="n">
-        <v>1.328961280805629</v>
+        <v>1.360240990277633</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.2925786477092416</v>
+        <v>0.3036356430554795</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.439650001678999</v>
+        <v>0.4611339971530213</v>
       </c>
       <c r="J21" s="6" t="n">
-        <v>0.5732279923343346</v>
+        <v>0.5706860081117942</v>
       </c>
     </row>
     <row r="22">
@@ -1260,28 +1260,28 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>3.627141599744917</v>
+        <v>4.514341306153789</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>3.805163285192224</v>
+        <v>4.551945339263725</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>3.704824620036986</v>
+        <v>3.639709171836257</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>-2.081075778348836</v>
+        <v>-1.250391117796484</v>
       </c>
       <c r="G23" s="6" t="n">
-        <v>0.1151296544938325</v>
+        <v>0.1369396477457966</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.138440999204113</v>
+        <v>0.1578596788938661</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.1230719932454141</v>
+        <v>0.1205961410926946</v>
       </c>
       <c r="J23" s="6" t="n">
-        <v>-0.05506482266849481</v>
+        <v>-0.0328440927349985</v>
       </c>
     </row>
     <row r="24">
@@ -1292,28 +1292,28 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>14.76753678356146</v>
+        <v>14.68395598779665</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>14.2961522216038</v>
+        <v>14.67330559927962</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>13.77287685675965</v>
+        <v>13.79629959190385</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>8.574775785771644</v>
+        <v>9.214447476951047</v>
       </c>
       <c r="G24" s="6" t="n">
-        <v>0.5671482819862141</v>
+        <v>0.5668683259069293</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.6641044149601245</v>
+        <v>0.6752116105112643</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.5420052305935059</v>
+        <v>0.5469976790952445</v>
       </c>
       <c r="J24" s="6" t="n">
-        <v>0.2755826427627505</v>
+        <v>0.2893366815301224</v>
       </c>
     </row>
     <row r="25">
@@ -1337,7 +1337,7 @@
         <v>3.735115487343782</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>4.022937507032529</v>
+        <v>4.022937507032531</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.2775735972882666</v>
@@ -1349,7 +1349,7 @@
         <v>0.1252636256381731</v>
       </c>
       <c r="J25" s="6" t="n">
-        <v>0.2054005974814036</v>
+        <v>0.2054005974814038</v>
       </c>
     </row>
     <row r="26">
@@ -1360,28 +1360,28 @@
         </is>
       </c>
       <c r="C26" s="5" t="n">
-        <v>0.7352559526813397</v>
+        <v>1.26780413478244</v>
       </c>
       <c r="D26" s="5" t="n">
-        <v>2.722453770619334</v>
+        <v>2.790963130927202</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>-0.8665772071926808</v>
+        <v>-1.387048016924034</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>0.03722897962878824</v>
+        <v>0.1508068851573343</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>0.03190633115640931</v>
+        <v>0.05622375713217535</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.1063756556513878</v>
+        <v>0.11444719975165</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>-0.02672640218576872</v>
+        <v>-0.04048774103812456</v>
       </c>
       <c r="J26" s="6" t="n">
-        <v>0.001952686360848475</v>
+        <v>0.006618864196092995</v>
       </c>
     </row>
     <row r="27">
@@ -1392,28 +1392,28 @@
         </is>
       </c>
       <c r="C27" s="5" t="n">
-        <v>9.782003942908656</v>
+        <v>10.32461879087083</v>
       </c>
       <c r="D27" s="5" t="n">
-        <v>12.00578184390868</v>
+        <v>11.920940038296</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>8.316992109551174</v>
+        <v>8.592802561113594</v>
       </c>
       <c r="F27" s="5" t="n">
-        <v>8.126286093215834</v>
+        <v>8.149111076131273</v>
       </c>
       <c r="G27" s="6" t="n">
-        <v>0.5193610516070487</v>
+        <v>0.5518912091326045</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>0.5597646572453921</v>
+        <v>0.5635036835699789</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>0.3010436196231676</v>
+        <v>0.3138103334530832</v>
       </c>
       <c r="J27" s="6" t="n">
-        <v>0.4734823376186254</v>
+        <v>0.4710800734815387</v>
       </c>
     </row>
     <row r="28">
@@ -1437,7 +1437,7 @@
         <v>5.478264444350484</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>4.817977169485566</v>
+        <v>4.81797716948556</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.2600292380484498</v>
@@ -1449,7 +1449,7 @@
         <v>0.1885252827185047</v>
       </c>
       <c r="J28" s="6" t="n">
-        <v>0.1830320425102384</v>
+        <v>0.1830320425102382</v>
       </c>
     </row>
     <row r="29">
@@ -1460,28 +1460,28 @@
         </is>
       </c>
       <c r="C29" s="5" t="n">
-        <v>4.343114033970245</v>
+        <v>4.206642823165589</v>
       </c>
       <c r="D29" s="5" t="n">
-        <v>3.535317358219878</v>
+        <v>3.539709917899354</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>3.278488041674565</v>
+        <v>3.355593992874593</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>2.727615090978445</v>
+        <v>2.717586574655213</v>
       </c>
       <c r="G29" s="6" t="n">
-        <v>0.1660670226455143</v>
+        <v>0.1619381608392835</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.1386014453412365</v>
+        <v>0.1343176123288355</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.1093991201233495</v>
+        <v>0.1132512683833352</v>
       </c>
       <c r="J29" s="6" t="n">
-        <v>0.0969832826018166</v>
+        <v>0.09805527390205086</v>
       </c>
     </row>
     <row r="30">
@@ -1492,28 +1492,28 @@
         </is>
       </c>
       <c r="C30" s="5" t="n">
-        <v>8.739624439758968</v>
+        <v>8.5600487444271</v>
       </c>
       <c r="D30" s="5" t="n">
-        <v>7.969027983281679</v>
+        <v>7.717219111384265</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>7.75758960143332</v>
+        <v>7.738147663108931</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>7.037301654958758</v>
+        <v>7.042887283308433</v>
       </c>
       <c r="G30" s="6" t="n">
-        <v>0.3663977583601246</v>
+        <v>0.3596757819915951</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>0.3387505466035582</v>
+        <v>0.3247252283110686</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>0.2776462238911628</v>
+        <v>0.2833339625553585</v>
       </c>
       <c r="J30" s="6" t="n">
-        <v>0.2794786205818889</v>
+        <v>0.2794558937771994</v>
       </c>
     </row>
     <row r="31">
